--- a/train-2-virtu.xlsx
+++ b/train-2-virtu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DBD64F-8F69-43EB-9193-9AD8869845EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC39CBD2-FBD7-40D4-9A7E-69D3D05C8CE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1001</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$801</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$2:$E$801</definedName>
@@ -3177,7 +3178,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{7357F48C-B071-4C32-891C-E4E7FCB647B5}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{7357F48C-B071-4C32-891C-E4E7FCB647B5}" formatIdx="0">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.1</cx:f>
@@ -3190,7 +3191,7 @@
           </cx:layoutPr>
           <cx:axisId val="1"/>
         </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{6048286A-F87E-4522-AC80-2F95ACACD3BC}">
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{6048286A-F87E-4522-AC80-2F95ACACD3BC}" formatIdx="1">
           <cx:spPr>
             <a:ln>
               <a:noFill/>
@@ -3272,7 +3273,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{B78EC624-E5CD-4B03-94BB-884C553EEC1A}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{B78EC624-E5CD-4B03-94BB-884C553EEC1A}" formatIdx="0">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.4</cx:f>
@@ -4444,7 +4445,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4233860" y="95250"/>
+              <a:off x="5062535" y="95250"/>
               <a:ext cx="14597065" cy="4314825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4522,7 +4523,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4376737" y="5219700"/>
+              <a:off x="5205412" y="5219700"/>
               <a:ext cx="13558838" cy="5295900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4819,10 +4820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4847,7 +4849,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1001</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>766</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>767</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>768</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>770</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -5187,7 +5189,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>772</v>
       </c>
@@ -5204,7 +5206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5255,7 +5257,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>774</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -5340,7 +5342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>775</v>
       </c>
@@ -5374,7 +5376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>777</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -5544,7 +5546,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -5578,7 +5580,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>778</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -5697,7 +5699,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -5731,7 +5733,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -5816,7 +5818,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>779</v>
       </c>
@@ -5867,7 +5869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>782</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -6020,7 +6022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>56</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>788</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>68</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>789</v>
       </c>
@@ -6564,7 +6566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -6615,7 +6617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>791</v>
       </c>
@@ -6666,7 +6668,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>77</v>
       </c>
@@ -6700,7 +6702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>794</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>795</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>797</v>
       </c>
@@ -6802,7 +6804,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>798</v>
       </c>
@@ -6853,7 +6855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -6955,7 +6957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>87</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>89</v>
       </c>
@@ -7108,7 +7110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>803</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>804</v>
       </c>
@@ -7159,7 +7161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>806</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>807</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>96</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>97</v>
       </c>
@@ -7312,7 +7314,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>811</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>98</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>101</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>106</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>108</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>109</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>111</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>814</v>
       </c>
@@ -7635,7 +7637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>815</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>818</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>114</v>
       </c>
@@ -7754,7 +7756,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>115</v>
       </c>
@@ -7890,7 +7892,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>121</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>822</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>124</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>125</v>
       </c>
@@ -7992,7 +7994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>823</v>
       </c>
@@ -8026,7 +8028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>128</v>
       </c>
@@ -8077,7 +8079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>825</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>131</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>133</v>
       </c>
@@ -8230,7 +8232,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>136</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>138</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>827</v>
       </c>
@@ -8315,7 +8317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>140</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>142</v>
       </c>
@@ -8400,7 +8402,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>143</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>145</v>
       </c>
@@ -8553,7 +8555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>150</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>151</v>
       </c>
@@ -8604,7 +8606,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>153</v>
       </c>
@@ -8638,7 +8640,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>155</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>832</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>156</v>
       </c>
@@ -8706,7 +8708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>160</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>162</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>163</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>165</v>
       </c>
@@ -8842,7 +8844,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>166</v>
       </c>
@@ -8876,7 +8878,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>168</v>
       </c>
@@ -8944,7 +8946,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>170</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>171</v>
       </c>
@@ -9029,7 +9031,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -9046,7 +9048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>835</v>
       </c>
@@ -9063,7 +9065,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>836</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -9165,7 +9167,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>179</v>
       </c>
@@ -9199,7 +9201,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>181</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>191</v>
       </c>
@@ -9437,7 +9439,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>193</v>
       </c>
@@ -9454,7 +9456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>841</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>195</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>196</v>
       </c>
@@ -9556,7 +9558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>199</v>
       </c>
@@ -9573,7 +9575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>200</v>
       </c>
@@ -9590,7 +9592,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>201</v>
       </c>
@@ -9641,7 +9643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>204</v>
       </c>
@@ -9743,7 +9745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>208</v>
       </c>
@@ -9862,7 +9864,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>212</v>
       </c>
@@ -9913,7 +9915,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>215</v>
       </c>
@@ -9947,7 +9949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>847</v>
       </c>
@@ -9964,7 +9966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>217</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>218</v>
       </c>
@@ -9998,7 +10000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>219</v>
       </c>
@@ -10066,7 +10068,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>222</v>
       </c>
@@ -10151,7 +10153,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>225</v>
       </c>
@@ -10185,7 +10187,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>227</v>
       </c>
@@ -10304,7 +10306,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>851</v>
       </c>
@@ -10355,7 +10357,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>235</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>236</v>
       </c>
@@ -10423,7 +10425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>238</v>
       </c>
@@ -10457,7 +10459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>240</v>
       </c>
@@ -10508,7 +10510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>243</v>
       </c>
@@ -10525,7 +10527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>244</v>
       </c>
@@ -10542,7 +10544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>245</v>
       </c>
@@ -10610,7 +10612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>856</v>
       </c>
@@ -10661,7 +10663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>249</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>857</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>252</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>255</v>
       </c>
@@ -10831,7 +10833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>257</v>
       </c>
@@ -10865,7 +10867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>259</v>
       </c>
@@ -10899,7 +10901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>261</v>
       </c>
@@ -10933,7 +10935,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>263</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>264</v>
       </c>
@@ -10967,7 +10969,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>859</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>268</v>
       </c>
@@ -11052,7 +11054,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>269</v>
       </c>
@@ -11086,7 +11088,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>271</v>
       </c>
@@ -11137,7 +11139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>274</v>
       </c>
@@ -11154,7 +11156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>275</v>
       </c>
@@ -11188,7 +11190,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>277</v>
       </c>
@@ -11205,7 +11207,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>860</v>
       </c>
@@ -11222,7 +11224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>278</v>
       </c>
@@ -11256,7 +11258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>280</v>
       </c>
@@ -11307,7 +11309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>282</v>
       </c>
@@ -11324,7 +11326,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>283</v>
       </c>
@@ -11341,7 +11343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>284</v>
       </c>
@@ -11358,7 +11360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>285</v>
       </c>
@@ -11375,7 +11377,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>862</v>
       </c>
@@ -11392,7 +11394,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>863</v>
       </c>
@@ -11579,7 +11581,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>294</v>
       </c>
@@ -11664,7 +11666,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>299</v>
       </c>
@@ -11681,7 +11683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>300</v>
       </c>
@@ -11698,7 +11700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>301</v>
       </c>
@@ -11715,7 +11717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>302</v>
       </c>
@@ -11868,7 +11870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>311</v>
       </c>
@@ -11885,7 +11887,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>312</v>
       </c>
@@ -11953,7 +11955,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>316</v>
       </c>
@@ -11970,7 +11972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>317</v>
       </c>
@@ -12021,7 +12023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>320</v>
       </c>
@@ -12072,7 +12074,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>323</v>
       </c>
@@ -12106,7 +12108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>325</v>
       </c>
@@ -12123,7 +12125,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>326</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>327</v>
       </c>
@@ -12242,7 +12244,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>866</v>
       </c>
@@ -12259,7 +12261,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>867</v>
       </c>
@@ -12276,7 +12278,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>868</v>
       </c>
@@ -12293,7 +12295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>869</v>
       </c>
@@ -12327,7 +12329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>871</v>
       </c>
@@ -12344,7 +12346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>872</v>
       </c>
@@ -12361,7 +12363,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>873</v>
       </c>
@@ -12378,7 +12380,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>874</v>
       </c>
@@ -12412,7 +12414,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>876</v>
       </c>
@@ -12429,7 +12431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>877</v>
       </c>
@@ -12446,7 +12448,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>878</v>
       </c>
@@ -12463,7 +12465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>879</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>880</v>
       </c>
@@ -12548,7 +12550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>335</v>
       </c>
@@ -12565,7 +12567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>336</v>
       </c>
@@ -12616,7 +12618,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>339</v>
       </c>
@@ -12667,7 +12669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>342</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>344</v>
       </c>
@@ -12752,7 +12754,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>347</v>
       </c>
@@ -12786,7 +12788,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>349</v>
       </c>
@@ -12820,7 +12822,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>882</v>
       </c>
@@ -12854,7 +12856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>351</v>
       </c>
@@ -12888,7 +12890,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>884</v>
       </c>
@@ -13024,7 +13026,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>887</v>
       </c>
@@ -13092,7 +13094,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>889</v>
       </c>
@@ -13194,7 +13196,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>362</v>
       </c>
@@ -13245,7 +13247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>364</v>
       </c>
@@ -13262,7 +13264,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>894</v>
       </c>
@@ -13330,7 +13332,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>368</v>
       </c>
@@ -13347,7 +13349,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>895</v>
       </c>
@@ -13449,7 +13451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>373</v>
       </c>
@@ -13483,7 +13485,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>898</v>
       </c>
@@ -13534,7 +13536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>375</v>
       </c>
@@ -13653,7 +13655,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>381</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>901</v>
       </c>
@@ -13721,7 +13723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>902</v>
       </c>
@@ -13755,7 +13757,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>903</v>
       </c>
@@ -13772,7 +13774,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>385</v>
       </c>
@@ -13908,7 +13910,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>391</v>
       </c>
@@ -13925,7 +13927,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>392</v>
       </c>
@@ -14078,7 +14080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>400</v>
       </c>
@@ -14095,7 +14097,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>401</v>
       </c>
@@ -14146,7 +14148,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>404</v>
       </c>
@@ -14163,7 +14165,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>907</v>
       </c>
@@ -14197,7 +14199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>406</v>
       </c>
@@ -14333,7 +14335,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>910</v>
       </c>
@@ -14350,7 +14352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>412</v>
       </c>
@@ -14367,7 +14369,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>413</v>
       </c>
@@ -14435,7 +14437,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>416</v>
       </c>
@@ -14537,7 +14539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>420</v>
       </c>
@@ -14571,7 +14573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>914</v>
       </c>
@@ -14639,7 +14641,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>425</v>
       </c>
@@ -14656,7 +14658,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>426</v>
       </c>
@@ -14707,7 +14709,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>916</v>
       </c>
@@ -14724,7 +14726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>428</v>
       </c>
@@ -14741,7 +14743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>429</v>
       </c>
@@ -14758,7 +14760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>917</v>
       </c>
@@ -14775,7 +14777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>430</v>
       </c>
@@ -14826,7 +14828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>918</v>
       </c>
@@ -14894,7 +14896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>436</v>
       </c>
@@ -14911,7 +14913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>437</v>
       </c>
@@ -14996,7 +14998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>442</v>
       </c>
@@ -15064,7 +15066,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>444</v>
       </c>
@@ -15081,7 +15083,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>445</v>
       </c>
@@ -15098,7 +15100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>446</v>
       </c>
@@ -15183,7 +15185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>450</v>
       </c>
@@ -15200,7 +15202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>451</v>
       </c>
@@ -15234,7 +15236,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>453</v>
       </c>
@@ -15251,7 +15253,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>454</v>
       </c>
@@ -15285,7 +15287,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>455</v>
       </c>
@@ -15336,7 +15338,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>456</v>
       </c>
@@ -15353,7 +15355,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>457</v>
       </c>
@@ -15370,7 +15372,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>458</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>459</v>
       </c>
@@ -15404,7 +15406,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>460</v>
       </c>
@@ -15421,7 +15423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>461</v>
       </c>
@@ -15438,7 +15440,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>925</v>
       </c>
@@ -15557,7 +15559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>467</v>
       </c>
@@ -15591,7 +15593,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>469</v>
       </c>
@@ -15608,7 +15610,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>470</v>
       </c>
@@ -15744,7 +15746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>478</v>
       </c>
@@ -15761,7 +15763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>479</v>
       </c>
@@ -15880,7 +15882,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>928</v>
       </c>
@@ -15914,7 +15916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>930</v>
       </c>
@@ -15982,7 +15984,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>932</v>
       </c>
@@ -16016,7 +16018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>933</v>
       </c>
@@ -16135,7 +16137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>938</v>
       </c>
@@ -16152,7 +16154,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>490</v>
       </c>
@@ -16203,7 +16205,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>493</v>
       </c>
@@ -16271,7 +16273,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>940</v>
       </c>
@@ -16322,7 +16324,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>497</v>
       </c>
@@ -16373,7 +16375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>500</v>
       </c>
@@ -16390,7 +16392,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>501</v>
       </c>
@@ -16424,7 +16426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>503</v>
       </c>
@@ -16458,7 +16460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>505</v>
       </c>
@@ -16475,7 +16477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>942</v>
       </c>
@@ -16509,7 +16511,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>507</v>
       </c>
@@ -16526,7 +16528,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>508</v>
       </c>
@@ -16577,7 +16579,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>943</v>
       </c>
@@ -16662,7 +16664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>515</v>
       </c>
@@ -16679,7 +16681,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>516</v>
       </c>
@@ -16696,7 +16698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>517</v>
       </c>
@@ -16713,7 +16715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>518</v>
       </c>
@@ -16730,7 +16732,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>519</v>
       </c>
@@ -16747,7 +16749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>944</v>
       </c>
@@ -16798,7 +16800,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>522</v>
       </c>
@@ -16815,7 +16817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>523</v>
       </c>
@@ -16832,7 +16834,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>524</v>
       </c>
@@ -16849,7 +16851,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>525</v>
       </c>
@@ -16951,7 +16953,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>531</v>
       </c>
@@ -16968,7 +16970,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>532</v>
       </c>
@@ -17002,7 +17004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>534</v>
       </c>
@@ -17019,7 +17021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>535</v>
       </c>
@@ -17036,7 +17038,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>536</v>
       </c>
@@ -17087,7 +17089,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>539</v>
       </c>
@@ -17104,7 +17106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>540</v>
       </c>
@@ -17189,7 +17191,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>545</v>
       </c>
@@ -17274,7 +17276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>550</v>
       </c>
@@ -17393,7 +17395,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>555</v>
       </c>
@@ -17410,7 +17412,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>556</v>
       </c>
@@ -17495,7 +17497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>561</v>
       </c>
@@ -17512,7 +17514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>562</v>
       </c>
@@ -17529,7 +17531,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>563</v>
       </c>
@@ -17580,7 +17582,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>566</v>
       </c>
@@ -17631,7 +17633,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>569</v>
       </c>
@@ -17665,7 +17667,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>570</v>
       </c>
@@ -17682,7 +17684,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>948</v>
       </c>
@@ -17699,7 +17701,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>571</v>
       </c>
@@ -17716,7 +17718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>949</v>
       </c>
@@ -17750,7 +17752,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>573</v>
       </c>
@@ -17767,7 +17769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>574</v>
       </c>
@@ -17801,7 +17803,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>950</v>
       </c>
@@ -17835,7 +17837,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>577</v>
       </c>
@@ -17852,7 +17854,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>578</v>
       </c>
@@ -17920,7 +17922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>582</v>
       </c>
@@ -17954,7 +17956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>951</v>
       </c>
@@ -18005,7 +18007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>586</v>
       </c>
@@ -18022,7 +18024,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>587</v>
       </c>
@@ -18039,7 +18041,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>588</v>
       </c>
@@ -18056,7 +18058,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>589</v>
       </c>
@@ -18090,7 +18092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>591</v>
       </c>
@@ -18124,7 +18126,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>593</v>
       </c>
@@ -18158,7 +18160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>595</v>
       </c>
@@ -18243,7 +18245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>600</v>
       </c>
@@ -18260,7 +18262,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>601</v>
       </c>
@@ -18294,7 +18296,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>603</v>
       </c>
@@ -18345,7 +18347,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>606</v>
       </c>
@@ -18379,7 +18381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>608</v>
       </c>
@@ -18396,7 +18398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>609</v>
       </c>
@@ -18464,7 +18466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>953</v>
       </c>
@@ -18498,7 +18500,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>955</v>
       </c>
@@ -18515,7 +18517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>956</v>
       </c>
@@ -18583,7 +18585,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>612</v>
       </c>
@@ -18600,7 +18602,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>960</v>
       </c>
@@ -18617,7 +18619,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>613</v>
       </c>
@@ -18651,7 +18653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>614</v>
       </c>
@@ -18668,7 +18670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>615</v>
       </c>
@@ -18685,7 +18687,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>616</v>
       </c>
@@ -18702,7 +18704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>962</v>
       </c>
@@ -18719,7 +18721,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>617</v>
       </c>
@@ -18753,7 +18755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>963</v>
       </c>
@@ -18804,7 +18806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>620</v>
       </c>
@@ -18821,7 +18823,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>621</v>
       </c>
@@ -18838,7 +18840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>622</v>
       </c>
@@ -18872,7 +18874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>624</v>
       </c>
@@ -18889,7 +18891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>625</v>
       </c>
@@ -18906,7 +18908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>965</v>
       </c>
@@ -18923,7 +18925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>966</v>
       </c>
@@ -18940,7 +18942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>626</v>
       </c>
@@ -19042,7 +19044,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>630</v>
       </c>
@@ -19076,7 +19078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>632</v>
       </c>
@@ -19144,7 +19146,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>636</v>
       </c>
@@ -19178,7 +19180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>638</v>
       </c>
@@ -19212,7 +19214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>640</v>
       </c>
@@ -19348,7 +19350,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>648</v>
       </c>
@@ -19399,7 +19401,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>651</v>
       </c>
@@ -19467,7 +19469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>972</v>
       </c>
@@ -19535,7 +19537,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>654</v>
       </c>
@@ -19552,7 +19554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>655</v>
       </c>
@@ -19603,7 +19605,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>658</v>
       </c>
@@ -19620,7 +19622,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>659</v>
       </c>
@@ -19705,7 +19707,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>664</v>
       </c>
@@ -19756,7 +19758,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>667</v>
       </c>
@@ -19773,7 +19775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>668</v>
       </c>
@@ -19824,7 +19826,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>671</v>
       </c>
@@ -19909,7 +19911,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>675</v>
       </c>
@@ -19994,7 +19996,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>679</v>
       </c>
@@ -20011,7 +20013,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>680</v>
       </c>
@@ -20045,7 +20047,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>976</v>
       </c>
@@ -20062,7 +20064,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>682</v>
       </c>
@@ -20079,7 +20081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>683</v>
       </c>
@@ -20130,7 +20132,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>685</v>
       </c>
@@ -20164,7 +20166,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>687</v>
       </c>
@@ -20249,7 +20251,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>692</v>
       </c>
@@ -20368,7 +20370,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>699</v>
       </c>
@@ -20419,7 +20421,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>702</v>
       </c>
@@ -20436,7 +20438,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>703</v>
       </c>
@@ -20589,7 +20591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>706</v>
       </c>
@@ -20606,7 +20608,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>707</v>
       </c>
@@ -20623,7 +20625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>708</v>
       </c>
@@ -20640,7 +20642,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>709</v>
       </c>
@@ -20674,7 +20676,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>984</v>
       </c>
@@ -20691,7 +20693,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>711</v>
       </c>
@@ -20725,7 +20727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>712</v>
       </c>
@@ -20742,7 +20744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>713</v>
       </c>
@@ -20759,7 +20761,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>714</v>
       </c>
@@ -20810,7 +20812,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>717</v>
       </c>
@@ -21014,7 +21016,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>986</v>
       </c>
@@ -21031,7 +21033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>987</v>
       </c>
@@ -21065,7 +21067,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>989</v>
       </c>
@@ -21082,7 +21084,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>990</v>
       </c>
@@ -21150,7 +21152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>732</v>
       </c>
@@ -21252,7 +21254,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>737</v>
       </c>
@@ -21269,7 +21271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>738</v>
       </c>
@@ -21303,7 +21305,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>992</v>
       </c>
@@ -21337,7 +21339,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>741</v>
       </c>
@@ -21371,7 +21373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>742</v>
       </c>
@@ -21405,7 +21407,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>744</v>
       </c>
@@ -21422,7 +21424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>745</v>
       </c>
@@ -21490,7 +21492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>748</v>
       </c>
@@ -21507,7 +21509,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>749</v>
       </c>
@@ -21524,7 +21526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>750</v>
       </c>
@@ -21541,7 +21543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>751</v>
       </c>
@@ -21592,7 +21594,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>753</v>
       </c>
@@ -21643,7 +21645,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>996</v>
       </c>
@@ -21660,7 +21662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>756</v>
       </c>
@@ -21694,7 +21696,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>997</v>
       </c>
@@ -21745,7 +21747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>998</v>
       </c>
@@ -21779,7 +21781,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>760</v>
       </c>
@@ -21848,6 +21850,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1001" xr:uid="{874FD788-79C5-4B4D-A609-637D8DFBF8EB}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
